--- a/Q5/basemodel_results.xlsx
+++ b/Q5/basemodel_results.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         <v>39083</v>
       </c>
       <c r="B2" t="n">
-        <v>1.101991365741217</v>
+        <v>1.101990802743257</v>
       </c>
       <c r="C2" t="n">
-        <v>3.187728104238713</v>
+        <v>3.187727460740891</v>
       </c>
       <c r="D2" t="n">
-        <v>1.637639818396697</v>
+        <v>1.637652883423894</v>
       </c>
       <c r="E2" t="n">
         <v>1.380533911866416</v>
@@ -496,24 +496,34 @@
       <c r="F2" t="n">
         <v>1.300306558609009</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.04640460787535719</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.05115826324767669</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8557417839777068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.230364125702715</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.387634873390198</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>39173</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7453951406982449</v>
+        <v>0.7453934771826984</v>
       </c>
       <c r="C3" t="n">
-        <v>1.523100612503866</v>
+        <v>1.522290753632348</v>
       </c>
       <c r="D3" t="n">
-        <v>1.303686629491769</v>
+        <v>1.303701596627947</v>
       </c>
       <c r="E3" t="n">
         <v>1.389925040386263</v>
@@ -521,24 +531,34 @@
       <c r="F3" t="n">
         <v>1.345291495323181</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0.5140800076753439</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.537758370765164</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.07349721528723</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.120692460864002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.300306558609009</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>39264</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9508959038986498</v>
+        <v>0.9508960496476184</v>
       </c>
       <c r="C4" t="n">
-        <v>1.098158402384682</v>
+        <v>1.098172595952668</v>
       </c>
       <c r="D4" t="n">
-        <v>1.292384773923375</v>
+        <v>1.292349070094954</v>
       </c>
       <c r="E4" t="n">
         <v>1.172884517905638</v>
@@ -546,24 +566,34 @@
       <c r="F4" t="n">
         <v>1.386424779891968</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.5240520421106403</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.354563349734249</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.067095222827051</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.235666286649168</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.345291495323181</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>39356</v>
       </c>
       <c r="B5" t="n">
-        <v>2.594217429101421</v>
+        <v>2.594217575328314</v>
       </c>
       <c r="C5" t="n">
-        <v>1.445450125830672</v>
+        <v>1.445409906644834</v>
       </c>
       <c r="D5" t="n">
-        <v>1.341311835224348</v>
+        <v>1.341306254295835</v>
       </c>
       <c r="E5" t="n">
         <v>1.048464396552451</v>
@@ -571,24 +601,34 @@
       <c r="F5" t="n">
         <v>1.364481925964355</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-0.1460407036559464</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4617377815933968</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8377612125649678</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.181118833353376</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.386424779891968</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="B6" t="n">
-        <v>1.196105190857153</v>
+        <v>1.196104912239469</v>
       </c>
       <c r="C6" t="n">
-        <v>1.06115425425439</v>
+        <v>1.06118232929756</v>
       </c>
       <c r="D6" t="n">
-        <v>1.045757233663958</v>
+        <v>1.045776827309545</v>
       </c>
       <c r="E6" t="n">
         <v>1.556403007906715</v>
@@ -596,24 +636,34 @@
       <c r="F6" t="n">
         <v>1.444493889808655</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>-0.1244539875029184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.09201647034558763</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.18614170650739</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9702693923939069</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.364481925964355</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>39539</v>
       </c>
       <c r="B7" t="n">
-        <v>1.411326631444672</v>
+        <v>1.411326984450711</v>
       </c>
       <c r="C7" t="n">
-        <v>2.428564580235614</v>
+        <v>2.428745733757222</v>
       </c>
       <c r="D7" t="n">
-        <v>1.391021484958088</v>
+        <v>1.391040079270763</v>
       </c>
       <c r="E7" t="n">
         <v>0.8204932366371327</v>
@@ -621,24 +671,34 @@
       <c r="F7" t="n">
         <v>1.367214679718018</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.714549597393215</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1689214492352934</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.340698017088961</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.085429054029701</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.444493889808655</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>39630</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2042813077013245</v>
+        <v>0.2042816842990526</v>
       </c>
       <c r="C8" t="n">
-        <v>2.137932262036602</v>
+        <v>2.142859678874492</v>
       </c>
       <c r="D8" t="n">
-        <v>1.027347961155955</v>
+        <v>1.027311861272725</v>
       </c>
       <c r="E8" t="n">
         <v>1.025484584299602</v>
@@ -646,24 +706,34 @@
       <c r="F8" t="n">
         <v>1.319488883018494</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-0.2257192138810469</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.157391653029569</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7102235124663392</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8549188544542039</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.367214679718018</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>39722</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.579140507006246</v>
+        <v>-4.579140499096741</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.881487377505298</v>
+        <v>-1.881478401213853</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3865498617161862</v>
+        <v>0.3866863485591656</v>
       </c>
       <c r="E9" t="n">
         <v>0.705416308607796</v>
@@ -671,24 +741,34 @@
       <c r="F9" t="n">
         <v>1.28472101688385</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>-0.4370661023298182</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.384851699988688</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.148818216393526</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7152883814603297</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.319488883018494</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>39814</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3512053356015684</v>
+        <v>-0.3512051970878667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4607488201354863</v>
+        <v>0.4606513720409842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1344624384338182</v>
+        <v>0.1344624375556656</v>
       </c>
       <c r="E10" t="n">
         <v>0.364238146962025</v>
@@ -696,24 +776,34 @@
       <c r="F10" t="n">
         <v>0.1596516221761703</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-1.676280227306042</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8907616027525074</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.536791381494409</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.793941870048809</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.28472101688385</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>39904</v>
       </c>
       <c r="B11" t="n">
-        <v>2.379055582382612</v>
+        <v>2.379055566134585</v>
       </c>
       <c r="C11" t="n">
-        <v>3.021815458034333</v>
+        <v>3.021819361176426</v>
       </c>
       <c r="D11" t="n">
-        <v>2.490676662795408</v>
+        <v>2.490717487125604</v>
       </c>
       <c r="E11" t="n">
         <v>1.452238486971605</v>
@@ -721,24 +811,34 @@
       <c r="F11" t="n">
         <v>1.271713376045227</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.245861605182862</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5336309021221932</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.78496684165253</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.297480269036314</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.212615489959717</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>39995</v>
       </c>
       <c r="B12" t="n">
-        <v>1.199616176218026</v>
+        <v>1.199616361712049</v>
       </c>
       <c r="C12" t="n">
-        <v>1.756883267058205</v>
+        <v>1.756883894589013</v>
       </c>
       <c r="D12" t="n">
-        <v>1.731222487858485</v>
+        <v>1.731203589712866</v>
       </c>
       <c r="E12" t="n">
         <v>1.339401861030658</v>
@@ -746,374 +846,524 @@
       <c r="F12" t="n">
         <v>1.270327806472778</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.1910941667404543</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8557465525842636</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.351280146366886</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.154838951901959</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.271713376045227</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>40087</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7212380906547311</v>
+        <v>0.7212379880875008</v>
       </c>
       <c r="C13" t="n">
-        <v>1.413857282156507</v>
+        <v>1.413847052102781</v>
       </c>
       <c r="D13" t="n">
-        <v>1.993581322400214</v>
+        <v>1.993597273790954</v>
       </c>
       <c r="E13" t="n">
         <v>1.842064466523136</v>
       </c>
       <c r="F13" t="n">
-        <v>1.368827342987061</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1.367560386657715</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5338256757238803</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.33284192373377</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.269057809848935</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.231078155336365</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.270327806472778</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>40179</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5454656624630312</v>
+        <v>0.5454654349280046</v>
       </c>
       <c r="C14" t="n">
-        <v>1.917429073918109</v>
+        <v>2.052923064693232</v>
       </c>
       <c r="D14" t="n">
-        <v>1.736512486571502</v>
+        <v>1.736514059109343</v>
       </c>
       <c r="E14" t="n">
         <v>1.23007823643363</v>
       </c>
       <c r="F14" t="n">
-        <v>1.351085066795349</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1.349266052246094</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0515150681791026</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2086369105455199</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.133140690002335</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.359258386401466</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.367560386657715</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>40269</v>
       </c>
       <c r="B15" t="n">
-        <v>2.115512157110549</v>
+        <v>2.115510364431538</v>
       </c>
       <c r="C15" t="n">
-        <v>2.173035272515832</v>
+        <v>2.172212092733864</v>
       </c>
       <c r="D15" t="n">
-        <v>1.541212725564886</v>
+        <v>1.541194051981282</v>
       </c>
       <c r="E15" t="n">
         <v>1.394707558254129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9472203254699707</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>0.9454923272132874</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.022996785387963</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.319902277350843</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.667989595134006</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.148295381149037</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.029750227928162</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>40360</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3282038118192636</v>
+        <v>0.3282036034167602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4920904161301491</v>
+        <v>0.4922194163409371</v>
       </c>
       <c r="D16" t="n">
-        <v>1.603528505711406</v>
+        <v>1.603528209631495</v>
       </c>
       <c r="E16" t="n">
         <v>1.483321866907922</v>
       </c>
       <c r="F16" t="n">
-        <v>1.522956728935242</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1.521044611930847</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9644492851374853</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.804210146495509</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.283119161682979</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.074897348164643</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9454923272132874</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>40452</v>
       </c>
       <c r="B17" t="n">
-        <v>1.510487092334072</v>
+        <v>1.51048755730707</v>
       </c>
       <c r="C17" t="n">
-        <v>1.184241512058261</v>
+        <v>1.184429652727006</v>
       </c>
       <c r="D17" t="n">
-        <v>1.474624662172765</v>
+        <v>1.474587316183353</v>
       </c>
       <c r="E17" t="n">
         <v>1.324312157667246</v>
       </c>
       <c r="F17" t="n">
-        <v>1.257918953895569</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1.255813598632812</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.04429267358656872</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6604730781166192</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.257947549882974</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.276058864808251</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9229594469070435</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>40544</v>
       </c>
       <c r="B18" t="n">
-        <v>1.353206538444914</v>
+        <v>1.353206962586441</v>
       </c>
       <c r="C18" t="n">
-        <v>2.8312347209516</v>
+        <v>2.828523711478101</v>
       </c>
       <c r="D18" t="n">
-        <v>1.277329400771038</v>
+        <v>1.277326030059104</v>
       </c>
       <c r="E18" t="n">
         <v>1.790654967281914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9808128476142883</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>0.9779189825057983</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5125813068997771</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.08081610685196616</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9870135254119319</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.20964359812273</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.255813598632812</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>40634</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2260053103769778</v>
+        <v>0.2260050604658347</v>
       </c>
       <c r="C19" t="n">
-        <v>1.913743866236616</v>
+        <v>1.913705543007861</v>
       </c>
       <c r="D19" t="n">
-        <v>1.215995739466511</v>
+        <v>1.215957183666948</v>
       </c>
       <c r="E19" t="n">
         <v>1.091123615262941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9720006585121155</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>0.9693419933319092</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.5097590602255823</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5064194683591083</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8688670002583798</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.256066584383148</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.521642684936523</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>40725</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3910220044559305</v>
+        <v>0.3910220994812353</v>
       </c>
       <c r="C20" t="n">
-        <v>1.254016965061086</v>
+        <v>1.144233274500302</v>
       </c>
       <c r="D20" t="n">
-        <v>1.402348702501769</v>
+        <v>1.402359448400222</v>
       </c>
       <c r="E20" t="n">
         <v>0.9009493607161175</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8685973286628723</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>0.8673362731933594</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.2773833602992046</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.374865237457264</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.44048094375427</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.10325247922194</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.205725073814392</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>40817</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03218829421471714</v>
+        <v>-0.0321882990547879</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05950448548575543</v>
+        <v>0.04507759694718411</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2997021072191082</v>
+        <v>0.2997011183739282</v>
       </c>
       <c r="E21" t="n">
         <v>0.9928489333214293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9792841672897339</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.9780961871147156</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1625859980614545</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8674970588039573</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.259333583029349</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7628631764606189</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.205299377441406</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>40909</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5045079790575129</v>
+        <v>0.5045079514255035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9013386282587771</v>
+        <v>0.9004434113587948</v>
       </c>
       <c r="D22" t="n">
-        <v>1.797184075602903</v>
+        <v>1.797159208664937</v>
       </c>
       <c r="E22" t="n">
         <v>0.6817278643572581</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6252123713493347</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.6249552369117737</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1584532674161495</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5171778359866591</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8316126781843245</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8801279157730733</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8830412030220032</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>41000</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03003369829784105</v>
+        <v>0.03003369458832334</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03013035915005191</v>
+        <v>-0.02903988851460637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7595761878425584</v>
+        <v>0.7595604182289897</v>
       </c>
       <c r="E23" t="n">
         <v>0.5095580361210363</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6430087685585022</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>0.6428947448730469</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1449903094127449</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1155677456057851</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.318988697352154</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.032133592475129</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6249552369117737</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>41091</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1385020084965117</v>
+        <v>-0.1385024334148813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3198075892243005</v>
+        <v>0.3198069886912934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5412065290785755</v>
+        <v>0.5412003504176823</v>
       </c>
       <c r="E24" t="n">
         <v>0.671068512780846</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6364316940307617</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>0.6361980438232422</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3484827547305649</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2493764812590293</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.537879952725394</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4874931485104548</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6428947448730469</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>41183</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4034160327285402</v>
+        <v>0.4034154393312379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7932103813709926</v>
+        <v>0.7932074754165905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8232076734183664</v>
+        <v>0.8232221779164419</v>
       </c>
       <c r="E25" t="n">
         <v>0.5626141169192852</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6444766521453857</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.6441291570663452</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05499357779611551</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4626582627241099</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.983356609970258</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.854089765885758</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6445346474647522</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>41275</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5340486284260177</v>
+        <v>0.5340485509937978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9708475199953952</v>
+        <v>0.9708474026519862</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8904263142529807</v>
+        <v>0.8904179709439433</v>
       </c>
       <c r="E26" t="n">
         <v>1.379406301561644</v>
       </c>
       <c r="F26" t="n">
-        <v>1.225741028785706</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1.225574493408203</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2158896077958891</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4095947241986214</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5106736432046191</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9709802471933949</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.229089260101318</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>41365</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1742772423541797</v>
+        <v>0.1742772976748155</v>
       </c>
       <c r="C27" t="n">
-        <v>0.498257882182587</v>
+        <v>0.4982579811221897</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7099867017725998</v>
+        <v>0.7099799063961996</v>
       </c>
       <c r="E27" t="n">
         <v>0.7515532752218406</v>
@@ -1121,24 +1371,34 @@
       <c r="F27" t="n">
         <v>1.430742383003235</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.02302504639784297</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5946132153652108</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.080210506502752</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7154893697795387</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.154994368553162</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>41456</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.183815631969554</v>
+        <v>-0.1838156956435774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3809565804450986</v>
+        <v>0.3809559248530389</v>
       </c>
       <c r="D28" t="n">
-        <v>0.751918459348591</v>
+        <v>0.751914025748281</v>
       </c>
       <c r="E28" t="n">
         <v>0.8717289683146441</v>
@@ -1146,24 +1406,34 @@
       <c r="F28" t="n">
         <v>1.198779821395874</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.1040891441804723</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4960228237173079</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9817984605996912</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9130842696716922</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.208168148994446</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>41548</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4383052453145311</v>
+        <v>0.4383055701442655</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9681163936612954</v>
+        <v>0.9681171961751978</v>
       </c>
       <c r="D29" t="n">
-        <v>1.234021080220025</v>
+        <v>1.234036193419161</v>
       </c>
       <c r="E29" t="n">
         <v>1.519587055476616</v>
@@ -1171,24 +1441,34 @@
       <c r="F29" t="n">
         <v>1.189908981323242</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>-0.2220243917173102</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.251130607685088</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.509631661172623</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.845532190661952</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.198779821395874</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>41640</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4365720051847727</v>
+        <v>0.436572356019758</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6846137367100781</v>
+        <v>0.6846144160652642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8389823013977953</v>
+        <v>0.8389804708308368</v>
       </c>
       <c r="E30" t="n">
         <v>0.7315593864403149</v>
@@ -1196,24 +1476,34 @@
       <c r="F30" t="n">
         <v>0.9155791401863098</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-0.2140689746294311</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3286523639261502</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6813724492247282</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8799935009696606</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9172849059104919</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>41730</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.5220064938752274</v>
+        <v>-0.5220070723295446</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2091144231116801</v>
+        <v>0.2091141087947079</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7414751402492179</v>
+        <v>0.7414852739665605</v>
       </c>
       <c r="E31" t="n">
         <v>0.9078149089334693</v>
@@ -1221,24 +1511,34 @@
       <c r="F31" t="n">
         <v>0.9195540547370911</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>-0.2597198800504561</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3690358646492615</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8114751484131268</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8000140426839039</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.172089695930481</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6294443454819026</v>
+        <v>0.6294449671658549</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7504125923937643</v>
+        <v>0.7504126436897824</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9273573150796004</v>
+        <v>0.9273681075215272</v>
       </c>
       <c r="E32" t="n">
         <v>0.7036870235413472</v>
@@ -1246,24 +1546,34 @@
       <c r="F32" t="n">
         <v>0.9179123044013977</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-0.240743626942911</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.400062188880124</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9590286043593608</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7411202879398957</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9195540547370911</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>41913</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00291995298623221</v>
+        <v>0.002919812051749793</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6759380078869019</v>
+        <v>0.6759021064232841</v>
       </c>
       <c r="D33" t="n">
-        <v>1.232056416310261</v>
+        <v>1.232106410993968</v>
       </c>
       <c r="E33" t="n">
         <v>0.7164071920201127</v>
@@ -1271,24 +1581,34 @@
       <c r="F33" t="n">
         <v>0.8723055124282837</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.02831362465648394</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.346451775929158</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9763485678491115</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7641363360368859</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.177139759063721</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>42005</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4818036715001099</v>
+        <v>0.4818038972107132</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8316065346004037</v>
+        <v>0.8316071650587046</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9074725816205529</v>
+        <v>0.9074291412604545</v>
       </c>
       <c r="E34" t="n">
         <v>0.6101910626398035</v>
@@ -1296,24 +1616,34 @@
       <c r="F34" t="n">
         <v>1.196574687957764</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.1153359171143077</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7987438043052872</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.180455430099048</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6147528179486221</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.198205947875977</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>42095</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2461071831725804</v>
+        <v>-0.2461056168775669</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3671184477073281</v>
+        <v>0.3671221133730131</v>
       </c>
       <c r="D35" t="n">
-        <v>0.557786366036197</v>
+        <v>0.5577725953318584</v>
       </c>
       <c r="E35" t="n">
         <v>0.6834918666789258</v>
@@ -1321,24 +1651,34 @@
       <c r="F35" t="n">
         <v>0.6822002530097961</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.1592108954581081</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7142334796213642</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7454440042262469</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7999483752718584</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.387703418731689</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>42186</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4784962033304236</v>
+        <v>0.4784955614578635</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5667128033216129</v>
+        <v>0.5667536534245357</v>
       </c>
       <c r="D36" t="n">
-        <v>0.688811948019648</v>
+        <v>0.6888205240916143</v>
       </c>
       <c r="E36" t="n">
         <v>0.9208221407423116</v>
@@ -1346,24 +1686,34 @@
       <c r="F36" t="n">
         <v>1.176713347434998</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>-0.09921277705908196</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4860981980745994</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.100863627811282</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.632852470230057</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.4297818839550018</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>42278</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5516337443186298</v>
+        <v>0.5516333764565224</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7489383843625587</v>
+        <v>0.7489373349072025</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8052312782879234</v>
+        <v>0.8052354814381317</v>
       </c>
       <c r="E37" t="n">
         <v>1.53722044630799</v>
@@ -1371,11 +1721,56 @@
       <c r="F37" t="n">
         <v>0.7538251876831055</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.1751240545727758</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5309538709582599</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.066273925136091</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8304868301028523</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6759634613990784</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.2480652828416359</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0498173192389704</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3180277933467472</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5330140594225395</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7538761496543884</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1247430367309265</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3436097656828507</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7661171219324672</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7442948128852503</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7538251876831055</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
